--- a/pred_ohlcv/54_23/2019-10-17 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-17 ZRX ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -415,7 +415,7 @@
         <v>384</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -438,7 +438,7 @@
         <v>386</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -668,7 +668,7 @@
         <v>385</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -691,7 +691,7 @@
         <v>385</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -760,7 +760,7 @@
         <v>385</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -993,7 +993,7 @@
         <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1016,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1062,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1082,10 +1082,10 @@
         <v>382</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1105,10 +1105,10 @@
         <v>382</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1128,10 +1128,10 @@
         <v>383</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1151,10 +1151,10 @@
         <v>381</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1174,10 +1174,10 @@
         <v>381</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1197,10 +1197,10 @@
         <v>381</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1358,10 +1358,10 @@
         <v>384</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1381,10 +1381,10 @@
         <v>384</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1404,10 +1404,10 @@
         <v>386</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1427,10 +1427,10 @@
         <v>385</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1450,10 +1450,10 @@
         <v>387</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1473,7 +1473,7 @@
         <v>385</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -1496,10 +1496,10 @@
         <v>384</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1519,10 +1519,10 @@
         <v>384</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1542,10 +1542,10 @@
         <v>379</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1565,10 +1565,10 @@
         <v>382</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1588,7 +1588,7 @@
         <v>383</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -1611,10 +1611,10 @@
         <v>383</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1634,10 +1634,10 @@
         <v>382</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1657,10 +1657,10 @@
         <v>382</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1680,10 +1680,10 @@
         <v>382</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1703,10 +1703,10 @@
         <v>383</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1726,10 +1726,10 @@
         <v>384</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1749,10 +1749,10 @@
         <v>385</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1772,7 +1772,7 @@
         <v>384</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -1795,7 +1795,7 @@
         <v>384</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -1818,7 +1818,7 @@
         <v>384</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -1841,7 +1841,7 @@
         <v>384</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -1864,7 +1864,7 @@
         <v>384</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -1887,10 +1887,10 @@
         <v>384</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1910,10 +1910,10 @@
         <v>383</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1933,10 +1933,10 @@
         <v>384</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1956,7 +1956,7 @@
         <v>384</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -1979,7 +1979,7 @@
         <v>383</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -2002,7 +2002,7 @@
         <v>385</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -2025,7 +2025,7 @@
         <v>385</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2738,7 +2738,7 @@
         <v>378</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -2761,7 +2761,7 @@
         <v>378</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -2830,7 +2830,7 @@
         <v>380</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         <v>380</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -2876,7 +2876,7 @@
         <v>380</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -2899,7 +2899,7 @@
         <v>380</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -2922,7 +2922,7 @@
         <v>381</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -2945,7 +2945,7 @@
         <v>381</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -2968,7 +2968,7 @@
         <v>382</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -3014,7 +3014,7 @@
         <v>379</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -3037,7 +3037,7 @@
         <v>382</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -3106,7 +3106,7 @@
         <v>382</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3638,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>